--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H2">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I2">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J2">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="N2">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="O2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="P2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="Q2">
-        <v>8.535987288886039</v>
+        <v>12.41778164161455</v>
       </c>
       <c r="R2">
-        <v>8.535987288886039</v>
+        <v>111.760034774531</v>
       </c>
       <c r="S2">
-        <v>0.001691351027042698</v>
+        <v>0.002260460209336913</v>
       </c>
       <c r="T2">
-        <v>0.001691351027042698</v>
+        <v>0.002260460209336913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H3">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I3">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J3">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="N3">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="O3">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="P3">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="Q3">
-        <v>10.21749930048695</v>
+        <v>14.90879706979056</v>
       </c>
       <c r="R3">
-        <v>10.21749930048695</v>
+        <v>134.179173628115</v>
       </c>
       <c r="S3">
-        <v>0.002024531826352086</v>
+        <v>0.002713910062035731</v>
       </c>
       <c r="T3">
-        <v>0.002024531826352086</v>
+        <v>0.002713910062035732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H4">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I4">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J4">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="N4">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="O4">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="P4">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="Q4">
-        <v>13.60026772646502</v>
+        <v>20.20919633204633</v>
       </c>
       <c r="R4">
-        <v>13.60026772646502</v>
+        <v>181.882766988417</v>
       </c>
       <c r="S4">
-        <v>0.002694805651498831</v>
+        <v>0.003678763686597461</v>
       </c>
       <c r="T4">
-        <v>0.002694805651498831</v>
+        <v>0.003678763686597461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H5">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I5">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J5">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="N5">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="O5">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="P5">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="Q5">
-        <v>8.999779939810722</v>
+        <v>13.86984166903989</v>
       </c>
       <c r="R5">
-        <v>8.999779939810722</v>
+        <v>124.828575021359</v>
       </c>
       <c r="S5">
-        <v>0.001783248560383412</v>
+        <v>0.00252478470853441</v>
       </c>
       <c r="T5">
-        <v>0.001783248560383412</v>
+        <v>0.00252478470853441</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0676570281108045</v>
+        <v>0.09783033333333334</v>
       </c>
       <c r="H6">
-        <v>0.0676570281108045</v>
+        <v>0.293491</v>
       </c>
       <c r="I6">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="J6">
-        <v>0.008401362854010896</v>
+        <v>0.01145526398792098</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="N6">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="O6">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="P6">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="Q6">
-        <v>1.04684590467025</v>
+        <v>1.523589588725111</v>
       </c>
       <c r="R6">
-        <v>1.04684590467025</v>
+        <v>13.712306298526</v>
       </c>
       <c r="S6">
-        <v>0.0002074257887338694</v>
+        <v>0.0002773453214164681</v>
       </c>
       <c r="T6">
-        <v>0.0002074257887338694</v>
+        <v>0.0002773453214164682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H7">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I7">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J7">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="N7">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="O7">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="P7">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="Q7">
-        <v>994.1833497212662</v>
+        <v>1053.130367955269</v>
       </c>
       <c r="R7">
-        <v>994.1833497212662</v>
+        <v>9478.173311597417</v>
       </c>
       <c r="S7">
-        <v>0.1969910418926191</v>
+        <v>0.1917056814744978</v>
       </c>
       <c r="T7">
-        <v>0.1969910418926191</v>
+        <v>0.1917056814744978</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H8">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I8">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J8">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="N8">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="O8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="P8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="Q8">
-        <v>1190.028445046859</v>
+        <v>1264.389034774293</v>
       </c>
       <c r="R8">
-        <v>1190.028445046859</v>
+        <v>11379.50131296863</v>
       </c>
       <c r="S8">
-        <v>0.2357964889850133</v>
+        <v>0.2301619713340027</v>
       </c>
       <c r="T8">
-        <v>0.2357964889850133</v>
+        <v>0.2301619713340028</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H9">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I9">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J9">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="N9">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="O9">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="P9">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="Q9">
-        <v>1584.018259142413</v>
+        <v>1713.906636747804</v>
       </c>
       <c r="R9">
-        <v>1584.018259142413</v>
+        <v>15425.15973073023</v>
       </c>
       <c r="S9">
-        <v>0.3138630387773853</v>
+        <v>0.3119895216955305</v>
       </c>
       <c r="T9">
-        <v>0.3138630387773853</v>
+        <v>0.3119895216955305</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H10">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I10">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J10">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="N10">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="O10">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="P10">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="Q10">
-        <v>1048.201111893049</v>
+        <v>1176.277042225243</v>
       </c>
       <c r="R10">
-        <v>1048.201111893049</v>
+        <v>10586.49338002719</v>
       </c>
       <c r="S10">
-        <v>0.2076943143361886</v>
+        <v>0.2141225804934484</v>
       </c>
       <c r="T10">
-        <v>0.2076943143361886</v>
+        <v>0.2141225804934484</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.87998957390241</v>
+        <v>8.296819666666666</v>
       </c>
       <c r="H11">
-        <v>7.87998957390241</v>
+        <v>24.890459</v>
       </c>
       <c r="I11">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="J11">
-        <v>0.9785036905220585</v>
+        <v>0.9715009272022777</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="N11">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="O11">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="P11">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="Q11">
-        <v>121.9257635847393</v>
+        <v>129.2129714062415</v>
       </c>
       <c r="R11">
-        <v>121.9257635847393</v>
+        <v>1162.916742656174</v>
       </c>
       <c r="S11">
-        <v>0.0241588065308525</v>
+        <v>0.02352117220479817</v>
       </c>
       <c r="T11">
-        <v>0.0241588065308525</v>
+        <v>0.02352117220479817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.105454934781418</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H12">
-        <v>0.105454934781418</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I12">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="J12">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="N12">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="O12">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="P12">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="Q12">
-        <v>13.30478160185015</v>
+        <v>0.3584131311901111</v>
       </c>
       <c r="R12">
-        <v>13.30478160185015</v>
+        <v>3.225718180711</v>
       </c>
       <c r="S12">
-        <v>0.002636256974769316</v>
+        <v>6.524342631730782E-05</v>
       </c>
       <c r="T12">
-        <v>0.002636256974769316</v>
+        <v>6.524342631730783E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.105454934781418</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H13">
-        <v>0.105454934781418</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I13">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="J13">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="N13">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="O13">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="P13">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="Q13">
-        <v>15.92570280499752</v>
+        <v>0.4303110486461111</v>
       </c>
       <c r="R13">
-        <v>15.92570280499752</v>
+        <v>3.872799437815</v>
       </c>
       <c r="S13">
-        <v>0.003155575668520532</v>
+        <v>7.833130193261352E-05</v>
       </c>
       <c r="T13">
-        <v>0.003155575668520532</v>
+        <v>7.833130193261353E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.105454934781418</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H14">
-        <v>0.105454934781418</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I14">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="J14">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="N14">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="O14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="P14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="Q14">
-        <v>21.19832020636975</v>
+        <v>0.5832959175196666</v>
       </c>
       <c r="R14">
-        <v>21.19832020636975</v>
+        <v>5.249663257676999</v>
       </c>
       <c r="S14">
-        <v>0.004200310923530258</v>
+        <v>0.0001061797710633958</v>
       </c>
       <c r="T14">
-        <v>0.004200310923530258</v>
+        <v>0.0001061797710633958</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.105454934781418</v>
+        <v>0.002823666666666667</v>
       </c>
       <c r="H15">
-        <v>0.105454934781418</v>
+        <v>0.008470999999999999</v>
       </c>
       <c r="I15">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="J15">
-        <v>0.01309494662393045</v>
+        <v>0.0003306320849418846</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="N15">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="O15">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="P15">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="Q15">
-        <v>14.02768098305358</v>
+        <v>0.4003237877087778</v>
       </c>
       <c r="R15">
-        <v>14.02768098305358</v>
+        <v>3.602914089379</v>
       </c>
       <c r="S15">
-        <v>0.002779494841634335</v>
+        <v>7.287259665882424E-05</v>
       </c>
       <c r="T15">
-        <v>0.002779494841634335</v>
+        <v>7.287259665882424E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.002823666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.008470999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0003306320849418846</v>
+      </c>
+      <c r="J16">
+        <v>0.0003306320849418846</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.57379533333333</v>
+      </c>
+      <c r="N16">
+        <v>46.721386</v>
+      </c>
+      <c r="O16">
+        <v>0.02421116804544314</v>
+      </c>
+      <c r="P16">
+        <v>0.02421116804544315</v>
+      </c>
+      <c r="Q16">
+        <v>0.04397520675622221</v>
+      </c>
+      <c r="R16">
+        <v>0.3957768608059999</v>
+      </c>
+      <c r="S16">
+        <v>8.004988969743199E-06</v>
+      </c>
+      <c r="T16">
+        <v>8.004988969743199E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.142734</v>
+      </c>
+      <c r="H17">
+        <v>0.428202</v>
+      </c>
+      <c r="I17">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J17">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>126.9318136666667</v>
+      </c>
+      <c r="N17">
+        <v>380.795441</v>
+      </c>
+      <c r="O17">
+        <v>0.1973293860115714</v>
+      </c>
+      <c r="P17">
+        <v>0.1973293860115715</v>
+      </c>
+      <c r="Q17">
+        <v>18.117485491898</v>
+      </c>
+      <c r="R17">
+        <v>163.057369427082</v>
+      </c>
+      <c r="S17">
+        <v>0.003298000901419412</v>
+      </c>
+      <c r="T17">
+        <v>0.003298000901419413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.142734</v>
+      </c>
+      <c r="H18">
+        <v>0.428202</v>
+      </c>
+      <c r="I18">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J18">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>152.3944216666667</v>
+      </c>
+      <c r="N18">
+        <v>457.183265</v>
+      </c>
+      <c r="O18">
+        <v>0.2369137948193439</v>
+      </c>
+      <c r="P18">
+        <v>0.2369137948193439</v>
+      </c>
+      <c r="Q18">
+        <v>21.75186538217</v>
+      </c>
+      <c r="R18">
+        <v>195.76678843953</v>
+      </c>
+      <c r="S18">
+        <v>0.003959582121372798</v>
+      </c>
+      <c r="T18">
+        <v>0.003959582121372799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.142734</v>
+      </c>
+      <c r="H19">
+        <v>0.428202</v>
+      </c>
+      <c r="I19">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J19">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>206.573929</v>
+      </c>
+      <c r="N19">
+        <v>619.7217869999999</v>
+      </c>
+      <c r="O19">
+        <v>0.321141764212203</v>
+      </c>
+      <c r="P19">
+        <v>0.321141764212203</v>
+      </c>
+      <c r="Q19">
+        <v>29.485123181886</v>
+      </c>
+      <c r="R19">
+        <v>265.3661086369739</v>
+      </c>
+      <c r="S19">
+        <v>0.005367299059011709</v>
+      </c>
+      <c r="T19">
+        <v>0.005367299059011709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.105454934781418</v>
-      </c>
-      <c r="H16">
-        <v>0.105454934781418</v>
-      </c>
-      <c r="I16">
-        <v>0.01309494662393045</v>
-      </c>
-      <c r="J16">
-        <v>0.01309494662393045</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>15.4728331098994</v>
-      </c>
-      <c r="N16">
-        <v>15.4728331098994</v>
-      </c>
-      <c r="O16">
-        <v>0.02468954053506238</v>
-      </c>
-      <c r="P16">
-        <v>0.02468954053506238</v>
-      </c>
-      <c r="Q16">
-        <v>1.631686606488206</v>
-      </c>
-      <c r="R16">
-        <v>1.631686606488206</v>
-      </c>
-      <c r="S16">
-        <v>0.0003233082154760091</v>
-      </c>
-      <c r="T16">
-        <v>0.0003233082154760091</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.142734</v>
+      </c>
+      <c r="H20">
+        <v>0.428202</v>
+      </c>
+      <c r="I20">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J20">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>141.7744496666667</v>
+      </c>
+      <c r="N20">
+        <v>425.323349</v>
+      </c>
+      <c r="O20">
+        <v>0.2204038869114384</v>
+      </c>
+      <c r="P20">
+        <v>0.2204038869114385</v>
+      </c>
+      <c r="Q20">
+        <v>20.236034298722</v>
+      </c>
+      <c r="R20">
+        <v>182.124308688498</v>
+      </c>
+      <c r="S20">
+        <v>0.003683649112796819</v>
+      </c>
+      <c r="T20">
+        <v>0.003683649112796819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.142734</v>
+      </c>
+      <c r="H21">
+        <v>0.428202</v>
+      </c>
+      <c r="I21">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="J21">
+        <v>0.0167131767248595</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.57379533333333</v>
+      </c>
+      <c r="N21">
+        <v>46.721386</v>
+      </c>
+      <c r="O21">
+        <v>0.02421116804544314</v>
+      </c>
+      <c r="P21">
+        <v>0.02421116804544315</v>
+      </c>
+      <c r="Q21">
+        <v>2.222910103108</v>
+      </c>
+      <c r="R21">
+        <v>20.006190927972</v>
+      </c>
+      <c r="S21">
+        <v>0.0004046455302587625</v>
+      </c>
+      <c r="T21">
+        <v>0.0004046455302587625</v>
       </c>
     </row>
   </sheetData>
